--- a/output/1Y_P69_KFSDIV.xlsx
+++ b/output/1Y_P69_KFSDIV.xlsx
@@ -656,7 +656,7 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
@@ -727,16 +727,16 @@
         <v>13.3398</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.8469</v>
       </c>
       <c r="C3" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D3" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E3" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="F3" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="H3" s="1">
-        <v>9630.504199999999</v>
+        <v>9592.0398</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9630.504199999999</v>
+        <v>9592.0398</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0369</v>
+        <v>-0.0408</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>13.129</v>
       </c>
       <c r="C4" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D4" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E4" s="1">
-        <v>1528.0343</v>
+        <v>1524.9828</v>
       </c>
       <c r="F4" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="H4" s="1">
-        <v>20061.5627</v>
+        <v>19981.3927</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20061.5627</v>
+        <v>19981.3927</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.0887</v>
+        <v>13.1149</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.022</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>12.716</v>
       </c>
       <c r="C5" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D5" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E5" s="1">
-        <v>2289.707</v>
+        <v>2285.1327</v>
       </c>
       <c r="F5" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="H5" s="1">
-        <v>29115.9137</v>
+        <v>28999.7056</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29115.9137</v>
+        <v>28999.7056</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.1021</v>
+        <v>13.1283</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>412.5693</v>
+        <v>411.7454</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9587.430700000001</v>
+        <v>-9588.2546</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0315</v>
+        <v>-0.0327</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>12.4613</v>
       </c>
       <c r="C6" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D6" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E6" s="1">
-        <v>3076.1178</v>
+        <v>3069.9697</v>
       </c>
       <c r="F6" s="1">
-        <v>806.623</v>
+        <v>804.9997</v>
       </c>
       <c r="H6" s="1">
-        <v>38332.4265</v>
+        <v>38179.3711</v>
       </c>
       <c r="I6" s="1">
-        <v>412.5693</v>
+        <v>411.7454</v>
       </c>
       <c r="J6" s="1">
-        <v>38744.9958</v>
+        <v>38591.1165</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.0034</v>
+        <v>13.0294</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10051.5712</v>
+        <v>-10051.4682</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0095</v>
+        <v>-0.0105</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>12.6545</v>
       </c>
       <c r="C7" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D7" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E7" s="1">
-        <v>3882.7408</v>
+        <v>3874.9694</v>
       </c>
       <c r="F7" s="1">
-        <v>794.308</v>
+        <v>792.7088</v>
       </c>
       <c r="H7" s="1">
-        <v>49134.1432</v>
+        <v>48937.7639</v>
       </c>
       <c r="I7" s="1">
-        <v>360.9981</v>
+        <v>360.2772</v>
       </c>
       <c r="J7" s="1">
-        <v>49495.1413</v>
+        <v>49298.0411</v>
       </c>
       <c r="K7" s="1">
-        <v>50051.5712</v>
+        <v>50051.4682</v>
       </c>
       <c r="L7" s="1">
-        <v>12.8908</v>
+        <v>12.9166</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10051.5712</v>
+        <v>-10051.4682</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0154</v>
+        <v>0.0145</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>12.2345</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E8" s="1">
-        <v>4677.0488</v>
+        <v>4667.6782</v>
       </c>
       <c r="F8" s="1">
-        <v>821.576</v>
+        <v>819.9256</v>
       </c>
       <c r="H8" s="1">
-        <v>57221.3538</v>
+        <v>56992.351</v>
       </c>
       <c r="I8" s="1">
-        <v>309.427</v>
+        <v>308.809</v>
       </c>
       <c r="J8" s="1">
-        <v>57530.7808</v>
+        <v>57301.1601</v>
       </c>
       <c r="K8" s="1">
-        <v>60103.1423</v>
+        <v>60102.9363</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8507</v>
+        <v>12.8764</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1048.34</v>
+        <v>1046.2417</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9003.231100000001</v>
+        <v>-9005.2264</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.033</v>
+        <v>-0.0337</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>12.1636</v>
       </c>
       <c r="C9" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D9" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E9" s="1">
-        <v>5498.6248</v>
+        <v>5487.6038</v>
       </c>
       <c r="F9" s="1">
-        <v>843.6022</v>
+        <v>841.8704</v>
       </c>
       <c r="H9" s="1">
-        <v>66883.07249999999</v>
+        <v>66615.66929999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1306.1958</v>
+        <v>1303.5826</v>
       </c>
       <c r="J9" s="1">
-        <v>68189.2683</v>
+        <v>67919.2519</v>
       </c>
       <c r="K9" s="1">
-        <v>70154.7135</v>
+        <v>70154.4045</v>
       </c>
       <c r="L9" s="1">
-        <v>12.7586</v>
+        <v>12.7842</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10261.2392</v>
+        <v>-10260.7165</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0098</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>11.8145</v>
       </c>
       <c r="C10" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D10" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E10" s="1">
-        <v>6342.2269</v>
+        <v>6329.4742</v>
       </c>
       <c r="F10" s="1">
-        <v>868.5293</v>
+        <v>866.7463</v>
       </c>
       <c r="H10" s="1">
-        <v>74930.2402</v>
+        <v>74630.1979</v>
       </c>
       <c r="I10" s="1">
-        <v>1044.9566</v>
+        <v>1042.8661</v>
       </c>
       <c r="J10" s="1">
-        <v>75975.1969</v>
+        <v>75673.06389999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80415.9526</v>
+        <v>80415.121</v>
       </c>
       <c r="L10" s="1">
-        <v>12.6795</v>
+        <v>12.7049</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10261.2392</v>
+        <v>-10260.7165</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0283</v>
+        <v>-0.0288</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>11.2352</v>
       </c>
       <c r="C11" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D11" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E11" s="1">
-        <v>7210.7562</v>
+        <v>7196.2206</v>
       </c>
       <c r="F11" s="1">
-        <v>913.3035</v>
+        <v>911.4399</v>
       </c>
       <c r="H11" s="1">
-        <v>81014.2883</v>
+        <v>80689.0625</v>
       </c>
       <c r="I11" s="1">
-        <v>783.7175</v>
+        <v>782.1496</v>
       </c>
       <c r="J11" s="1">
-        <v>81798.0058</v>
+        <v>81471.2121</v>
       </c>
       <c r="K11" s="1">
-        <v>90677.1918</v>
+        <v>90675.8376</v>
       </c>
       <c r="L11" s="1">
-        <v>12.5753</v>
+        <v>12.6005</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1712.4013</v>
+        <v>1708.958</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8548.8379</v>
+        <v>-8551.7585</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0486</v>
+        <v>-0.049</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.8241</v>
       </c>
       <c r="C12" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D12" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E12" s="1">
-        <v>8124.0598</v>
+        <v>8107.6604</v>
       </c>
       <c r="F12" s="1">
-        <v>1027.1006</v>
+        <v>1024.8387</v>
       </c>
       <c r="H12" s="1">
-        <v>87935.6352</v>
+        <v>87582.1912</v>
       </c>
       <c r="I12" s="1">
-        <v>2234.8796</v>
+        <v>2230.3911</v>
       </c>
       <c r="J12" s="1">
-        <v>90170.5148</v>
+        <v>89812.58229999999</v>
       </c>
       <c r="K12" s="1">
-        <v>100938.431</v>
+        <v>100936.5541</v>
       </c>
       <c r="L12" s="1">
-        <v>12.4246</v>
+        <v>12.4495</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11117.4398</v>
+        <v>-11115.1955</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0177</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>11.2543</v>
       </c>
       <c r="C13" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D13" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E13" s="1">
-        <v>9151.160400000001</v>
+        <v>9132.499100000001</v>
       </c>
       <c r="F13" s="1">
-        <v>987.8393</v>
+        <v>985.6606</v>
       </c>
       <c r="H13" s="1">
-        <v>102989.9042</v>
+        <v>102574.4039</v>
       </c>
       <c r="I13" s="1">
-        <v>1117.4398</v>
+        <v>1115.1955</v>
       </c>
       <c r="J13" s="1">
-        <v>104107.344</v>
+        <v>103689.5994</v>
       </c>
       <c r="K13" s="1">
-        <v>112055.8708</v>
+        <v>112051.7496</v>
       </c>
       <c r="L13" s="1">
-        <v>12.245</v>
+        <v>12.2696</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11117.4398</v>
+        <v>-11115.1955</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0393</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>10.5675</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E14" s="1">
-        <v>10138.9997</v>
+        <v>10118.1597</v>
       </c>
       <c r="F14" s="1">
-        <v>-10138.9997</v>
+        <v>-10118.1597</v>
       </c>
       <c r="H14" s="1">
-        <v>107143.879</v>
+        <v>106710.1594</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>107143.879</v>
+        <v>106710.1594</v>
       </c>
       <c r="K14" s="1">
-        <v>123173.3106</v>
+        <v>123166.9452</v>
       </c>
       <c r="L14" s="1">
-        <v>12.1485</v>
+        <v>12.1729</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2470.8133</v>
+        <v>2465.7748</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109614.6923</v>
+        <v>109175.9342</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.061</v>
+        <v>-0.0614</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.3398</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.8469</v>
       </c>
       <c r="C3" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D3" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E3" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="F3" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9630.504199999999</v>
+        <v>9592.0398</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9630.504199999999</v>
+        <v>9592.0398</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0369</v>
+        <v>-0.0408</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>13.129</v>
       </c>
       <c r="C4" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D4" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E4" s="1">
-        <v>1528.0343</v>
+        <v>1524.9828</v>
       </c>
       <c r="F4" s="1">
-        <v>756.9836</v>
+        <v>760.1499</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20061.5627</v>
+        <v>19981.3927</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20061.5627</v>
+        <v>19981.3927</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.0887</v>
+        <v>13.1149</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9938.4373</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.022</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>12.716</v>
       </c>
       <c r="C5" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D5" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E5" s="1">
-        <v>2285.0179</v>
+        <v>2285.1327</v>
       </c>
       <c r="F5" s="1">
-        <v>791.2522</v>
+        <v>784.837</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29056.2876</v>
+        <v>28999.7056</v>
       </c>
       <c r="I5" s="1">
-        <v>61.5627</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29117.8503</v>
+        <v>28999.7056</v>
       </c>
       <c r="K5" s="1">
-        <v>29938.4373</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.1021</v>
+        <v>13.1283</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>412.5693</v>
+        <v>411.7454</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9648.993399999999</v>
+        <v>-9588.2546</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0314</v>
+        <v>-0.0327</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>12.4613</v>
       </c>
       <c r="C6" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D6" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E6" s="1">
-        <v>3076.2701</v>
+        <v>3069.9697</v>
       </c>
       <c r="F6" s="1">
-        <v>835.5925</v>
+        <v>833.8535000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38334.3243</v>
+        <v>38179.3711</v>
       </c>
       <c r="I6" s="1">
-        <v>412.5693</v>
+        <v>411.7454</v>
       </c>
       <c r="J6" s="1">
-        <v>38746.8936</v>
+        <v>38591.1165</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.0028</v>
+        <v>13.0294</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10412.5693</v>
+        <v>-10411.7454</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0095</v>
+        <v>-0.0105</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>12.6545</v>
       </c>
       <c r="C7" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D7" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E7" s="1">
-        <v>3911.8626</v>
+        <v>3903.8232</v>
       </c>
       <c r="F7" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>49502.6654</v>
+        <v>49302.1643</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49502.6654</v>
+        <v>49302.1643</v>
       </c>
       <c r="K7" s="1">
-        <v>50412.5693</v>
+        <v>50411.7454</v>
       </c>
       <c r="L7" s="1">
-        <v>12.8871</v>
+        <v>12.9134</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0155</v>
+        <v>0.0146</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>12.2345</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E8" s="1">
-        <v>4702.0953</v>
+        <v>4692.473</v>
       </c>
       <c r="F8" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>57527.7854</v>
+        <v>57295.0951</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57527.7854</v>
+        <v>57295.0951</v>
       </c>
       <c r="K8" s="1">
-        <v>60412.5693</v>
+        <v>60411.7454</v>
       </c>
       <c r="L8" s="1">
-        <v>12.848</v>
+        <v>12.8742</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1056.2029</v>
+        <v>1054.0323</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8943.7971</v>
+        <v>-8945.967699999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0332</v>
+        <v>-0.0338</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>12.1636</v>
       </c>
       <c r="C9" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D9" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E9" s="1">
-        <v>5519.4561</v>
+        <v>5508.2002</v>
       </c>
       <c r="F9" s="1">
-        <v>908.9580999999999</v>
+        <v>906.9603</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>67136.45600000001</v>
+        <v>66865.69469999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1056.2029</v>
+        <v>1054.0323</v>
       </c>
       <c r="J9" s="1">
-        <v>68192.65889999999</v>
+        <v>67919.727</v>
       </c>
       <c r="K9" s="1">
-        <v>70412.5693</v>
+        <v>70411.7454</v>
       </c>
       <c r="L9" s="1">
-        <v>12.7572</v>
+        <v>12.7831</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11056.2029</v>
+        <v>-11054.0323</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0098</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>11.8145</v>
       </c>
       <c r="C10" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D10" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E10" s="1">
-        <v>6428.4142</v>
+        <v>6415.1605</v>
       </c>
       <c r="F10" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>75948.49950000001</v>
+        <v>75640.51609999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>75948.49950000001</v>
+        <v>75640.51609999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81468.77220000001</v>
+        <v>81465.7776</v>
       </c>
       <c r="L10" s="1">
-        <v>12.6732</v>
+        <v>12.6989</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0287</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>11.2352</v>
       </c>
       <c r="C11" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D11" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E11" s="1">
-        <v>7274.8317</v>
+        <v>7259.8835</v>
       </c>
       <c r="F11" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>81734.1894</v>
+        <v>81402.89599999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81734.1894</v>
+        <v>81402.89599999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91468.77220000001</v>
+        <v>91465.7776</v>
       </c>
       <c r="L11" s="1">
-        <v>12.5733</v>
+        <v>12.5988</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1735.6718</v>
+        <v>1732.0933</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8264.3282</v>
+        <v>-8267.9067</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.049</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.8241</v>
       </c>
       <c r="C12" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D12" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E12" s="1">
-        <v>8164.8836</v>
+        <v>8148.1644</v>
       </c>
       <c r="F12" s="1">
-        <v>1084.2169</v>
+        <v>1081.7177</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>88377.5168</v>
+        <v>88019.73149999999</v>
       </c>
       <c r="I12" s="1">
-        <v>1735.6718</v>
+        <v>1732.0933</v>
       </c>
       <c r="J12" s="1">
-        <v>90113.18859999999</v>
+        <v>89751.82490000001</v>
       </c>
       <c r="K12" s="1">
-        <v>101468.7722</v>
+        <v>101465.7776</v>
       </c>
       <c r="L12" s="1">
-        <v>12.4275</v>
+        <v>12.4526</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11735.6718</v>
+        <v>-11732.0933</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0177</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>11.2543</v>
       </c>
       <c r="C13" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D13" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E13" s="1">
-        <v>9249.1005</v>
+        <v>9229.882100000001</v>
       </c>
       <c r="F13" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>104092.1516</v>
+        <v>103668.1897</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>104092.1516</v>
+        <v>103668.1897</v>
       </c>
       <c r="K13" s="1">
-        <v>113204.444</v>
+        <v>113197.871</v>
       </c>
       <c r="L13" s="1">
-        <v>12.2395</v>
+        <v>12.2643</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0397</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>10.5675</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E14" s="1">
-        <v>10137.6498</v>
+        <v>10116.6506</v>
       </c>
       <c r="F14" s="1">
-        <v>-10137.6498</v>
+        <v>-10116.6506</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>107129.6138</v>
+        <v>106694.2441</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>107129.6138</v>
+        <v>106694.2441</v>
       </c>
       <c r="K14" s="1">
-        <v>123204.444</v>
+        <v>123197.871</v>
       </c>
       <c r="L14" s="1">
-        <v>12.1532</v>
+        <v>12.1777</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2497.2571</v>
+        <v>2492.0682</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109626.8709</v>
+        <v>109186.3123</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.061</v>
+        <v>-0.0614</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.3398</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.8469</v>
       </c>
       <c r="C3" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D3" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E3" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="F3" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9630.504199999999</v>
+        <v>9592.0398</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9630.504199999999</v>
+        <v>9592.0398</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0369</v>
+        <v>-0.0408</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>13.129</v>
       </c>
       <c r="C4" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D4" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E4" s="1">
-        <v>1528.0343</v>
+        <v>1524.9828</v>
       </c>
       <c r="F4" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20061.5627</v>
+        <v>19981.3927</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20061.5627</v>
+        <v>19981.3927</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.0887</v>
+        <v>13.1149</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.022</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>12.716</v>
       </c>
       <c r="C5" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D5" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E5" s="1">
-        <v>2289.707</v>
+        <v>2285.1327</v>
       </c>
       <c r="F5" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29115.9137</v>
+        <v>28999.7056</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29115.9137</v>
+        <v>28999.7056</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.1021</v>
+        <v>13.1283</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>412.5693</v>
+        <v>411.7454</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9587.430700000001</v>
+        <v>-9588.2546</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0315</v>
+        <v>-0.0327</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>12.4613</v>
       </c>
       <c r="C6" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D6" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E6" s="1">
-        <v>3076.1178</v>
+        <v>3069.9697</v>
       </c>
       <c r="F6" s="1">
-        <v>835.5925</v>
+        <v>833.8535000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>38332.4265</v>
+        <v>38179.3711</v>
       </c>
       <c r="I6" s="1">
-        <v>412.5693</v>
+        <v>411.7454</v>
       </c>
       <c r="J6" s="1">
-        <v>38744.9958</v>
+        <v>38591.1165</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.0034</v>
+        <v>13.0294</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10412.5693</v>
+        <v>-10411.7454</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0095</v>
+        <v>-0.0105</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>12.6545</v>
       </c>
       <c r="C7" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D7" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E7" s="1">
-        <v>3911.7103</v>
+        <v>3903.8232</v>
       </c>
       <c r="F7" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49500.7382</v>
+        <v>49302.1643</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49500.7382</v>
+        <v>49302.1643</v>
       </c>
       <c r="K7" s="1">
-        <v>50412.5693</v>
+        <v>50411.7454</v>
       </c>
       <c r="L7" s="1">
-        <v>12.8876</v>
+        <v>12.9134</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0155</v>
+        <v>0.0146</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>12.2345</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E8" s="1">
-        <v>4701.943</v>
+        <v>4692.473</v>
       </c>
       <c r="F8" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>57525.9221</v>
+        <v>57295.0951</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57525.9221</v>
+        <v>57295.0951</v>
       </c>
       <c r="K8" s="1">
-        <v>60412.5693</v>
+        <v>60411.7454</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8484</v>
+        <v>12.8742</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1056.1618</v>
+        <v>1054.0323</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8943.8382</v>
+        <v>-8945.967699999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0332</v>
+        <v>-0.0338</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>12.1636</v>
       </c>
       <c r="C9" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D9" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E9" s="1">
-        <v>5519.3038</v>
+        <v>5508.2002</v>
       </c>
       <c r="F9" s="1">
-        <v>908.9547</v>
+        <v>906.9603</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>67134.6035</v>
+        <v>66865.69469999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1056.1618</v>
+        <v>1054.0323</v>
       </c>
       <c r="J9" s="1">
-        <v>68190.7653</v>
+        <v>67919.727</v>
       </c>
       <c r="K9" s="1">
-        <v>70412.5693</v>
+        <v>70411.7454</v>
       </c>
       <c r="L9" s="1">
-        <v>12.7575</v>
+        <v>12.7831</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11056.1618</v>
+        <v>-11054.0323</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0098</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>11.8145</v>
       </c>
       <c r="C10" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D10" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E10" s="1">
-        <v>6428.2585</v>
+        <v>6415.1605</v>
       </c>
       <c r="F10" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>75946.6602</v>
+        <v>75640.51609999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>75946.6602</v>
+        <v>75640.51609999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81468.7311</v>
+        <v>81465.7776</v>
       </c>
       <c r="L10" s="1">
-        <v>12.6735</v>
+        <v>12.6989</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0287</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>11.2352</v>
       </c>
       <c r="C11" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D11" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E11" s="1">
-        <v>7274.6761</v>
+        <v>7259.8835</v>
       </c>
       <c r="F11" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>81732.44040000001</v>
+        <v>81402.89599999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81732.44040000001</v>
+        <v>81402.89599999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91468.7311</v>
+        <v>91465.7776</v>
       </c>
       <c r="L11" s="1">
-        <v>12.5736</v>
+        <v>12.5988</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1735.6298</v>
+        <v>1732.0933</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8264.370199999999</v>
+        <v>-8267.9067</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.049</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.8241</v>
       </c>
       <c r="C12" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D12" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E12" s="1">
-        <v>8164.7279</v>
+        <v>8148.1644</v>
       </c>
       <c r="F12" s="1">
-        <v>1084.213</v>
+        <v>1081.7177</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>88375.8317</v>
+        <v>88019.73149999999</v>
       </c>
       <c r="I12" s="1">
-        <v>1735.6298</v>
+        <v>1732.0933</v>
       </c>
       <c r="J12" s="1">
-        <v>90111.4615</v>
+        <v>89751.82490000001</v>
       </c>
       <c r="K12" s="1">
-        <v>101468.7311</v>
+        <v>101465.7776</v>
       </c>
       <c r="L12" s="1">
-        <v>12.4277</v>
+        <v>12.4526</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11735.6298</v>
+        <v>-11732.0933</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0177</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>11.2543</v>
       </c>
       <c r="C13" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D13" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E13" s="1">
-        <v>9248.9409</v>
+        <v>9229.882100000001</v>
       </c>
       <c r="F13" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>104090.3559</v>
+        <v>103668.1897</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>104090.3559</v>
+        <v>103668.1897</v>
       </c>
       <c r="K13" s="1">
-        <v>113204.3609</v>
+        <v>113197.871</v>
       </c>
       <c r="L13" s="1">
-        <v>12.2397</v>
+        <v>12.2643</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0397</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>10.5675</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E14" s="1">
-        <v>10137.4902</v>
+        <v>10116.6506</v>
       </c>
       <c r="F14" s="1">
-        <v>-10137.4902</v>
+        <v>-10116.6506</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>107127.9277</v>
+        <v>106694.2441</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>107127.9277</v>
+        <v>106694.2441</v>
       </c>
       <c r="K14" s="1">
-        <v>123204.3609</v>
+        <v>123197.871</v>
       </c>
       <c r="L14" s="1">
-        <v>12.1533</v>
+        <v>12.1777</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2497.2141</v>
+        <v>2492.0682</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109625.1417</v>
+        <v>109186.3123</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.061</v>
+        <v>-0.0614</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.3398</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.8469</v>
       </c>
       <c r="C3" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D3" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E3" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="F3" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9630.504199999999</v>
+        <v>9592.0398</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9630.504199999999</v>
+        <v>9592.0398</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0369</v>
+        <v>-0.0408</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>13.129</v>
       </c>
       <c r="C4" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D4" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E4" s="1">
-        <v>1528.0343</v>
+        <v>1524.9828</v>
       </c>
       <c r="F4" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20061.5627</v>
+        <v>19981.3927</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20061.5627</v>
+        <v>19981.3927</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.0887</v>
+        <v>13.1149</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.022</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>12.716</v>
       </c>
       <c r="C5" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D5" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E5" s="1">
-        <v>2289.707</v>
+        <v>2285.1327</v>
       </c>
       <c r="F5" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29115.9137</v>
+        <v>28999.7056</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29115.9137</v>
+        <v>28999.7056</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.1021</v>
+        <v>13.1283</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>412.5693</v>
+        <v>411.7454</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9587.430700000001</v>
+        <v>-9588.2546</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0315</v>
+        <v>-0.0327</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>12.4613</v>
       </c>
       <c r="C6" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D6" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E6" s="1">
-        <v>3076.1178</v>
+        <v>3069.9697</v>
       </c>
       <c r="F6" s="1">
-        <v>835.5925</v>
+        <v>833.8535000000001</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>38332.4265</v>
+        <v>38179.3711</v>
       </c>
       <c r="I6" s="1">
-        <v>412.5693</v>
+        <v>411.7454</v>
       </c>
       <c r="J6" s="1">
-        <v>38744.9958</v>
+        <v>38591.1165</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.0034</v>
+        <v>13.0294</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10412.5693</v>
+        <v>-10411.7454</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0095</v>
+        <v>-0.0105</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>12.6545</v>
       </c>
       <c r="C7" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D7" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E7" s="1">
-        <v>3911.7103</v>
+        <v>3903.8232</v>
       </c>
       <c r="F7" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49500.7382</v>
+        <v>49302.1643</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49500.7382</v>
+        <v>49302.1643</v>
       </c>
       <c r="K7" s="1">
-        <v>50412.5693</v>
+        <v>50411.7454</v>
       </c>
       <c r="L7" s="1">
-        <v>12.8876</v>
+        <v>12.9134</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0155</v>
+        <v>0.0146</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>12.2345</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E8" s="1">
-        <v>4701.943</v>
+        <v>4692.473</v>
       </c>
       <c r="F8" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>57525.9221</v>
+        <v>57295.0951</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57525.9221</v>
+        <v>57295.0951</v>
       </c>
       <c r="K8" s="1">
-        <v>60412.5693</v>
+        <v>60411.7454</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8484</v>
+        <v>12.8742</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1056.1618</v>
+        <v>1054.0323</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8943.8382</v>
+        <v>-8945.967699999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0332</v>
+        <v>-0.0338</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>12.1636</v>
       </c>
       <c r="C9" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D9" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E9" s="1">
-        <v>5519.3038</v>
+        <v>5508.2002</v>
       </c>
       <c r="F9" s="1">
-        <v>908.9547</v>
+        <v>906.9603</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>67134.6035</v>
+        <v>66865.69469999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1056.1618</v>
+        <v>1054.0323</v>
       </c>
       <c r="J9" s="1">
-        <v>68190.7653</v>
+        <v>67919.727</v>
       </c>
       <c r="K9" s="1">
-        <v>70412.5693</v>
+        <v>70411.7454</v>
       </c>
       <c r="L9" s="1">
-        <v>12.7575</v>
+        <v>12.7831</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11056.1618</v>
+        <v>-11054.0323</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0098</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>11.8145</v>
       </c>
       <c r="C10" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D10" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E10" s="1">
-        <v>6428.2585</v>
+        <v>6415.1605</v>
       </c>
       <c r="F10" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>75946.6602</v>
+        <v>75640.51609999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>75946.6602</v>
+        <v>75640.51609999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81468.7311</v>
+        <v>81465.7776</v>
       </c>
       <c r="L10" s="1">
-        <v>12.6735</v>
+        <v>12.6989</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0287</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>11.2352</v>
       </c>
       <c r="C11" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D11" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E11" s="1">
-        <v>7274.6761</v>
+        <v>7259.8835</v>
       </c>
       <c r="F11" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>81732.44040000001</v>
+        <v>81402.89599999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81732.44040000001</v>
+        <v>81402.89599999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91468.7311</v>
+        <v>91465.7776</v>
       </c>
       <c r="L11" s="1">
-        <v>12.5736</v>
+        <v>12.5988</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1735.6298</v>
+        <v>1732.0933</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8264.370199999999</v>
+        <v>-8267.9067</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.049</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.8241</v>
       </c>
       <c r="C12" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D12" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E12" s="1">
-        <v>8164.7279</v>
+        <v>8148.1644</v>
       </c>
       <c r="F12" s="1">
-        <v>1084.213</v>
+        <v>1081.7177</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>88375.8317</v>
+        <v>88019.73149999999</v>
       </c>
       <c r="I12" s="1">
-        <v>1735.6298</v>
+        <v>1732.0933</v>
       </c>
       <c r="J12" s="1">
-        <v>90111.4615</v>
+        <v>89751.82490000001</v>
       </c>
       <c r="K12" s="1">
-        <v>101468.7311</v>
+        <v>101465.7776</v>
       </c>
       <c r="L12" s="1">
-        <v>12.4277</v>
+        <v>12.4526</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11735.6298</v>
+        <v>-11732.0933</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0177</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>11.2543</v>
       </c>
       <c r="C13" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D13" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E13" s="1">
-        <v>9248.9409</v>
+        <v>9229.882100000001</v>
       </c>
       <c r="F13" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>104090.3559</v>
+        <v>103668.1897</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>104090.3559</v>
+        <v>103668.1897</v>
       </c>
       <c r="K13" s="1">
-        <v>113204.3609</v>
+        <v>113197.871</v>
       </c>
       <c r="L13" s="1">
-        <v>12.2397</v>
+        <v>12.2643</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0397</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>10.5675</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E14" s="1">
-        <v>10137.4902</v>
+        <v>10116.6506</v>
       </c>
       <c r="F14" s="1">
-        <v>-10137.4902</v>
+        <v>-10116.6506</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>107127.9277</v>
+        <v>106694.2441</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>107127.9277</v>
+        <v>106694.2441</v>
       </c>
       <c r="K14" s="1">
-        <v>123204.3609</v>
+        <v>123197.871</v>
       </c>
       <c r="L14" s="1">
-        <v>12.1533</v>
+        <v>12.1777</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2497.2141</v>
+        <v>2492.0682</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109625.1417</v>
+        <v>109186.3123</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.061</v>
+        <v>-0.0614</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.3398</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.8469</v>
       </c>
       <c r="C3" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D3" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E3" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="F3" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9630.504199999999</v>
+        <v>9592.0398</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9630.504199999999</v>
+        <v>9592.0398</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0369</v>
+        <v>-0.0408</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>13.129</v>
       </c>
       <c r="C4" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D4" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E4" s="1">
-        <v>1528.0343</v>
+        <v>1524.9828</v>
       </c>
       <c r="F4" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20061.5627</v>
+        <v>19981.3927</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20061.5627</v>
+        <v>19981.3927</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.0887</v>
+        <v>13.1149</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.022</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>12.716</v>
       </c>
       <c r="C5" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D5" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E5" s="1">
-        <v>2289.707</v>
+        <v>2285.1327</v>
       </c>
       <c r="F5" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29115.9137</v>
+        <v>28999.7056</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29115.9137</v>
+        <v>28999.7056</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.1021</v>
+        <v>13.1283</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>412.5693</v>
+        <v>411.7454</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9587.430700000001</v>
+        <v>-9588.2546</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0315</v>
+        <v>-0.0327</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>12.4613</v>
       </c>
       <c r="C6" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D6" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E6" s="1">
-        <v>3076.1178</v>
+        <v>3069.9697</v>
       </c>
       <c r="F6" s="1">
-        <v>835.5925</v>
+        <v>833.8535000000001</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>38332.4265</v>
+        <v>38179.3711</v>
       </c>
       <c r="I6" s="1">
-        <v>412.5693</v>
+        <v>411.7454</v>
       </c>
       <c r="J6" s="1">
-        <v>38744.9958</v>
+        <v>38591.1165</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.0034</v>
+        <v>13.0294</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10412.5693</v>
+        <v>-10411.7454</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0095</v>
+        <v>-0.0105</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>12.6545</v>
       </c>
       <c r="C7" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D7" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E7" s="1">
-        <v>3911.7103</v>
+        <v>3903.8232</v>
       </c>
       <c r="F7" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>49500.7382</v>
+        <v>49302.1643</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49500.7382</v>
+        <v>49302.1643</v>
       </c>
       <c r="K7" s="1">
-        <v>50412.5693</v>
+        <v>50411.7454</v>
       </c>
       <c r="L7" s="1">
-        <v>12.8876</v>
+        <v>12.9134</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0155</v>
+        <v>0.0146</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>12.2345</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E8" s="1">
-        <v>4701.943</v>
+        <v>4692.473</v>
       </c>
       <c r="F8" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>57525.9221</v>
+        <v>57295.0951</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57525.9221</v>
+        <v>57295.0951</v>
       </c>
       <c r="K8" s="1">
-        <v>60412.5693</v>
+        <v>60411.7454</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8484</v>
+        <v>12.8742</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1056.1618</v>
+        <v>1054.0323</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8943.8382</v>
+        <v>-8945.967699999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0332</v>
+        <v>-0.0338</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>12.1636</v>
       </c>
       <c r="C9" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D9" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E9" s="1">
-        <v>5519.3038</v>
+        <v>5508.2002</v>
       </c>
       <c r="F9" s="1">
-        <v>908.9547</v>
+        <v>906.9603</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>67134.6035</v>
+        <v>66865.69469999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1056.1618</v>
+        <v>1054.0323</v>
       </c>
       <c r="J9" s="1">
-        <v>68190.7653</v>
+        <v>67919.727</v>
       </c>
       <c r="K9" s="1">
-        <v>70412.5693</v>
+        <v>70411.7454</v>
       </c>
       <c r="L9" s="1">
-        <v>12.7575</v>
+        <v>12.7831</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11056.1618</v>
+        <v>-11054.0323</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0098</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>11.8145</v>
       </c>
       <c r="C10" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D10" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E10" s="1">
-        <v>6428.2585</v>
+        <v>6415.1605</v>
       </c>
       <c r="F10" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>75946.6602</v>
+        <v>75640.51609999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>75946.6602</v>
+        <v>75640.51609999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81468.7311</v>
+        <v>81465.7776</v>
       </c>
       <c r="L10" s="1">
-        <v>12.6735</v>
+        <v>12.6989</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0287</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>11.2352</v>
       </c>
       <c r="C11" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D11" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E11" s="1">
-        <v>7274.6761</v>
+        <v>7259.8835</v>
       </c>
       <c r="F11" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>81732.44040000001</v>
+        <v>81402.89599999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81732.44040000001</v>
+        <v>81402.89599999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91468.7311</v>
+        <v>91465.7776</v>
       </c>
       <c r="L11" s="1">
-        <v>12.5736</v>
+        <v>12.5988</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1735.6298</v>
+        <v>1732.0933</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8264.370199999999</v>
+        <v>-8267.9067</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.049</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.8241</v>
       </c>
       <c r="C12" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D12" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E12" s="1">
-        <v>8164.7279</v>
+        <v>8148.1644</v>
       </c>
       <c r="F12" s="1">
-        <v>1084.213</v>
+        <v>1081.7177</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>88375.8317</v>
+        <v>88019.73149999999</v>
       </c>
       <c r="I12" s="1">
-        <v>1735.6298</v>
+        <v>1732.0933</v>
       </c>
       <c r="J12" s="1">
-        <v>90111.4615</v>
+        <v>89751.82490000001</v>
       </c>
       <c r="K12" s="1">
-        <v>101468.7311</v>
+        <v>101465.7776</v>
       </c>
       <c r="L12" s="1">
-        <v>12.4277</v>
+        <v>12.4526</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11735.6298</v>
+        <v>-11732.0933</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0177</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>11.2543</v>
       </c>
       <c r="C13" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D13" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E13" s="1">
-        <v>9248.9409</v>
+        <v>9229.882100000001</v>
       </c>
       <c r="F13" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>104090.3559</v>
+        <v>103668.1897</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>104090.3559</v>
+        <v>103668.1897</v>
       </c>
       <c r="K13" s="1">
-        <v>113204.3609</v>
+        <v>113197.871</v>
       </c>
       <c r="L13" s="1">
-        <v>12.2397</v>
+        <v>12.2643</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0397</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>10.5675</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E14" s="1">
-        <v>10137.4902</v>
+        <v>10116.6506</v>
       </c>
       <c r="F14" s="1">
-        <v>-10137.4902</v>
+        <v>-10116.6506</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>107127.9277</v>
+        <v>106694.2441</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>107127.9277</v>
+        <v>106694.2441</v>
       </c>
       <c r="K14" s="1">
-        <v>123204.3609</v>
+        <v>123197.871</v>
       </c>
       <c r="L14" s="1">
-        <v>12.1533</v>
+        <v>12.1777</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2497.2141</v>
+        <v>2492.0682</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109625.1417</v>
+        <v>109186.3123</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.061</v>
+        <v>-0.0614</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>12.1485</v>
+        <v>12.1729</v>
       </c>
       <c r="D3" s="1">
-        <v>12.1532</v>
+        <v>12.1777</v>
       </c>
       <c r="E3" s="1">
-        <v>12.1533</v>
+        <v>12.1777</v>
       </c>
       <c r="F3" s="1">
-        <v>12.1533</v>
+        <v>12.1777</v>
       </c>
       <c r="G3" s="1">
-        <v>12.1533</v>
+        <v>12.1777</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.2256</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1802</v>
+        <v>-0.1926</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1804</v>
+        <v>-0.193</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1805</v>
+        <v>-0.193</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1805</v>
+        <v>-0.193</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1805</v>
+        <v>-0.193</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1012</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1019</v>
+        <v>0.1021</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1024</v>
+        <v>0.1026</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1025</v>
+        <v>0.1026</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1025</v>
+        <v>0.1026</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1025</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-2.4294</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.9669</v>
+        <v>-2.0861</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.9593</v>
+        <v>-2.0795</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.9598</v>
+        <v>-2.0795</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.9598</v>
+        <v>-2.0795</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.9598</v>
+        <v>-2.0795</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1572</v>
+        <v>-0.1637</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1562</v>
+        <v>-0.1626</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1562</v>
+        <v>-0.1626</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1562</v>
+        <v>-0.1626</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1562</v>
+        <v>-0.1626</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5644.1239</v>
+        <v>5632.7199</v>
       </c>
       <c r="D8" s="1">
-        <v>5701.7011</v>
+        <v>5689.9391</v>
       </c>
       <c r="E8" s="1">
-        <v>5701.5749</v>
+        <v>5689.9391</v>
       </c>
       <c r="F8" s="1">
-        <v>5701.5749</v>
+        <v>5689.9391</v>
       </c>
       <c r="G8" s="1">
-        <v>5701.5749</v>
+        <v>5689.9391</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P69_KFSDIV.xlsx
+++ b/output/1Y_P69_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.3398</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.8469</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.129</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.716</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.4613</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.6545</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2345</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.1636</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.8145</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.2352</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8241</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.2543</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.5675</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.3398</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.8469</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.129</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.716</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.4613</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.6545</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2345</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.1636</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.8145</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.2352</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8241</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.2543</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.5675</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.3398</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.8469</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.129</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.716</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.4613</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.6545</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2345</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.1636</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.8145</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.2352</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8241</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.2543</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.5675</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.3398</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.8469</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.129</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.716</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.4613</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.6545</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2345</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.1636</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.8145</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.2352</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8241</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.2543</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.5675</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.3398</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.8469</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.129</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.716</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.4613</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.6545</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2345</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.1636</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.8145</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.2352</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8241</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.2543</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.5675</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6604.471</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8667</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8662</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8662</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8662</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8662</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
